--- a/Time to boil.xlsx
+++ b/Time to boil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/Documents/GitHub/ASE6002PEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0449BDE-9C17-9A42-AAB2-94B185709F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF17752-E625-9B4E-ABD5-669325449DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1180" windowWidth="27640" windowHeight="16540" xr2:uid="{27C4B1DC-FCF3-DE4A-89F8-E18223F7FC46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Fluid capacity</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>Arbitrary value, likely a combination of power input vs heat output</t>
+  </si>
+  <si>
+    <t>Target temperature</t>
+  </si>
+  <si>
+    <t>Boiling at Sea Level</t>
+  </si>
+  <si>
+    <t>1 Watt = 1 Joule per second</t>
   </si>
 </sst>
 </file>
@@ -153,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +175,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -175,11 +190,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,6 +265,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9062CD-1FD7-0648-B463-C7469FEDF1C4}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,6 +647,9 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -572,6 +658,9 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="C4">
+        <v>4.1859999999999999</v>
+      </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
@@ -584,7 +673,10 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -598,7 +690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -610,24 +702,32 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="5">
+        <f>(C4*(C3*1000))*(C11-C6)</f>
+        <v>167440</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="8">
+        <f>C8/C5</f>
+        <v>1674.4</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -645,39 +745,45 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -685,20 +791,20 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -706,7 +812,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -714,22 +820,30 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Time to boil.xlsx
+++ b/Time to boil.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/Documents/GitHub/ASE6002PEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF17752-E625-9B4E-ABD5-669325449DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF53401-C9FD-2348-A904-D187F5D4E994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1180" windowWidth="27640" windowHeight="16540" xr2:uid="{27C4B1DC-FCF3-DE4A-89F8-E18223F7FC46}"/>
+    <workbookView xWindow="-21540" yWindow="-28180" windowWidth="34400" windowHeight="26040" xr2:uid="{27C4B1DC-FCF3-DE4A-89F8-E18223F7FC46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Fluid capacity</t>
   </si>
@@ -101,33 +101,9 @@
     <t>Convection surface area</t>
   </si>
   <si>
-    <t>Conduction surface area</t>
-  </si>
-  <si>
-    <t>Insulation r value</t>
-  </si>
-  <si>
-    <t>Insulation thickness</t>
-  </si>
-  <si>
-    <t>Inner wall material thickness</t>
-  </si>
-  <si>
-    <t>Outer wall material thickness</t>
-  </si>
-  <si>
-    <t>Inner wall thermal conductivity</t>
-  </si>
-  <si>
-    <t>Outer wall thermal conductivity</t>
-  </si>
-  <si>
     <t>Basic Calculations</t>
   </si>
   <si>
-    <t>Heating element inefficiency</t>
-  </si>
-  <si>
     <t>mm^2</t>
   </si>
   <si>
@@ -147,6 +123,12 @@
   </si>
   <si>
     <t>1 Watt = 1 Joule per second</t>
+  </si>
+  <si>
+    <t>lid thickness</t>
+  </si>
+  <si>
+    <t>lid Insulation r value</t>
   </si>
 </sst>
 </file>
@@ -256,21 +238,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9062CD-1FD7-0648-B463-C7469FEDF1C4}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,12 +600,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -676,7 +657,7 @@
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -702,38 +683,38 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <f>(C4*(C3*1000))*(C11-C6)</f>
         <v>167440</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <f>C8/C5</f>
         <v>1674.4</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -742,12 +723,12 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -756,28 +737,28 @@
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -786,59 +767,20 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Time to boil.xlsx
+++ b/Time to boil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/Documents/GitHub/ASE6002PEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF53401-C9FD-2348-A904-D187F5D4E994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5C0E33-7E3A-A249-A840-2B35DD499667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21540" yWindow="-28180" windowWidth="34400" windowHeight="26040" xr2:uid="{27C4B1DC-FCF3-DE4A-89F8-E18223F7FC46}"/>
+    <workbookView xWindow="-21520" yWindow="-28180" windowWidth="34400" windowHeight="26040" xr2:uid="{27C4B1DC-FCF3-DE4A-89F8-E18223F7FC46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -691,7 +691,7 @@
       </c>
       <c r="C8" s="3">
         <f>(C4*(C3*1000))*(C11-C6)</f>
-        <v>167440</v>
+        <v>334880</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>11</v>
@@ -706,7 +706,7 @@
       </c>
       <c r="C9" s="6">
         <f>C8/C5</f>
-        <v>1674.4</v>
+        <v>3348.8</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
